--- a/xlsx/country_comparison/custom_redistr_most_mean.xlsx
+++ b/xlsx/country_comparison/custom_redistr_most_mean.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">Loses in own custom redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to skip this question.</t>
+    <t xml:space="preserve">custom_redistr_satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom_redistr_skip</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
         <v>4.77084250692854</v>
       </c>
       <c r="J4" t="n">
-        <v>4.42395634859103</v>
+        <v>4.42395634859102</v>
       </c>
       <c r="K4" t="n">
         <v>4.54122555886245</v>
@@ -575,16 +575,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>243.859856665704</v>
+        <v>242.045500729898</v>
       </c>
       <c r="C5" t="n">
-        <v>254.768824485587</v>
+        <v>251.061082082337</v>
       </c>
       <c r="D5" t="n">
         <v>238.022681878728</v>
       </c>
       <c r="E5" t="n">
-        <v>245.249556879022</v>
+        <v>238.646978806938</v>
       </c>
       <c r="F5" t="n">
         <v>272.389963020104</v>
@@ -593,22 +593,22 @@
         <v>264.574788445226</v>
       </c>
       <c r="H5" t="n">
-        <v>266.427973030593</v>
+        <v>264.188486368283</v>
       </c>
       <c r="I5" t="n">
-        <v>257.650904387216</v>
+        <v>246.596884457216</v>
       </c>
       <c r="J5" t="n">
-        <v>221.742604272232</v>
+        <v>222.74051731422</v>
       </c>
       <c r="K5" t="n">
-        <v>232.624457106208</v>
+        <v>232.973437908526</v>
       </c>
       <c r="L5" t="n">
         <v>274.297143942411</v>
       </c>
       <c r="M5" t="n">
-        <v>233.20799640273</v>
+        <v>232.533807970671</v>
       </c>
     </row>
     <row r="6">
@@ -616,16 +616,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.11353961710558</v>
+        <v>5.11340902370102</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39514273808263</v>
+        <v>5.39220439864498</v>
       </c>
       <c r="D6" t="n">
         <v>5.0147638962913</v>
       </c>
       <c r="E6" t="n">
-        <v>5.10885958685904</v>
+        <v>5.10123556039544</v>
       </c>
       <c r="F6" t="n">
         <v>5.93329114050014</v>
@@ -634,22 +634,22 @@
         <v>5.86127261939289</v>
       </c>
       <c r="H6" t="n">
-        <v>5.65083244023413</v>
+        <v>5.65424149834322</v>
       </c>
       <c r="I6" t="n">
-        <v>5.28587527204688</v>
+        <v>5.27280465978773</v>
       </c>
       <c r="J6" t="n">
-        <v>4.66029346746541</v>
+        <v>4.68126628703672</v>
       </c>
       <c r="K6" t="n">
-        <v>4.65867992158079</v>
+        <v>4.6656688249704</v>
       </c>
       <c r="L6" t="n">
         <v>5.91408224230056</v>
       </c>
       <c r="M6" t="n">
-        <v>4.90224996427908</v>
+        <v>4.90243297521537</v>
       </c>
     </row>
     <row r="7">
@@ -657,16 +657,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>46.3382315026307</v>
+        <v>46.3725250660407</v>
       </c>
       <c r="C7" t="n">
-        <v>41.1108627350503</v>
+        <v>41.1467443227155</v>
       </c>
       <c r="D7" t="n">
         <v>42.4818158444523</v>
       </c>
       <c r="E7" t="n">
-        <v>46.7862116337415</v>
+        <v>46.8559069700612</v>
       </c>
       <c r="F7" t="n">
         <v>35.2272469755116</v>
@@ -675,22 +675,22 @@
         <v>11.3957809941361</v>
       </c>
       <c r="H7" t="n">
-        <v>35.775572282328</v>
+        <v>35.8269923725672</v>
       </c>
       <c r="I7" t="n">
-        <v>54.8110495715088</v>
+        <v>54.8866021415646</v>
       </c>
       <c r="J7" t="n">
-        <v>73.585937339573</v>
+        <v>73.9170977262703</v>
       </c>
       <c r="K7" t="n">
-        <v>36.8486996018008</v>
+        <v>36.9039796394692</v>
       </c>
       <c r="L7" t="n">
         <v>40.5295705557186</v>
       </c>
       <c r="M7" t="n">
-        <v>56.5334546323181</v>
+        <v>56.5535147336437</v>
       </c>
     </row>
     <row r="8">
@@ -713,7 +713,7 @@
         <v>63.3294813075585</v>
       </c>
       <c r="G8" t="n">
-        <v>56.683869430922</v>
+        <v>56.6838694309219</v>
       </c>
       <c r="H8" t="n">
         <v>62.7561397537583</v>
@@ -751,7 +751,7 @@
         <v>41.3791210382809</v>
       </c>
       <c r="F9" t="n">
-        <v>34.7683813345704</v>
+        <v>34.7683813345703</v>
       </c>
       <c r="G9" t="n">
         <v>42.3972329239059</v>
